--- a/doc/hasplayer.js_Errors.xlsx
+++ b/doc/hasplayer.js_Errors.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="315" windowWidth="22995" windowHeight="10305"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="22995" windowHeight="10245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="3" r:id="rId1"/>
+    <sheet name="errors_WebTV-G8PC" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">errors!$A$1:$G$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'errors_WebTV-G8PC'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="217">
   <si>
     <t>MEDIA_ERR_ENCRYPTED</t>
   </si>
@@ -74,9 +76,6 @@
   </si>
   <si>
     <t>MANIFEST_ERR_PARSE</t>
-  </si>
-  <si>
-    <t>MANIFEST_ERR_NOSTREAM</t>
   </si>
   <si>
     <t>CAPABILITY_ERR_MEDIASOURCE</t>
@@ -234,15 +233,6 @@
   </si>
   <si>
     <t>EME not supported/enabled</t>
-  </si>
-  <si>
-    <t>{
-  code: &lt;code&gt;,
-  message: &lt;message&gt;,
-  data: {
-    url: &lt;URL of the segment&gt;
-  }
-}</t>
   </si>
   <si>
     <t>{
@@ -487,18 +477,6 @@
 # Applies on Chrome if EME is disabled (see chrome://flags)</t>
   </si>
   <si>
-    <t>{
-  code: &lt;code&gt;,
-  message: &lt;message&gt;,
-  data: [{
-    ks: {
-      schemeIdUri: &lt;KS scheme id uri&gt;,
-      systemString: &lt;KS name&gt;
-    }
-  }]
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -517,6 +495,347 @@
   <si>
     <t>WebTV-G8PC Code
 (new)</t>
+  </si>
+  <si>
+    <t># 'data.ks' contains array of signalized Key Systems
+# Applies on Chrome if EME is disabled (see chrome://flags)</t>
+  </si>
+  <si>
+    <t>{
+  code: &lt;code&gt;,
+  message: &lt;message&gt;,
+  data: {
+    url: &lt;URL of the segment&gt;,
+    status: &lt;HTTP status code&gt;
+  }
+}</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>N1/N2</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Icône</t>
+  </si>
+  <si>
+    <t>Cette erreur intervient quand aucun stream (video, audio ou text) n'a été détecté dans le manifest ou aucune période contenant des streams</t>
+  </si>
+  <si>
+    <t>Message : Relancer la lecture</t>
+  </si>
+  <si>
+    <t>Probablement un pb de conf en tête de réseau</t>
+  </si>
+  <si>
+    <t>Si systématique pour 1 client -&gt; pas de solution donc à faire remonter</t>
+  </si>
+  <si>
+    <t>Une erreur est survenue</t>
+  </si>
+  <si>
+    <t>Warning</t>
+  </si>
+  <si>
+    <t>Merci d'essayer à nouveau. 
+Si le problème persiste, veuillez contacter le support via le lien ''nous contacter'' en bas de page.</t>
+  </si>
+  <si>
+    <t>Relancer la lecture</t>
+  </si>
+  <si>
+    <t>Le téléchargement des données a été abandonné à la demande de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Rien</t>
+  </si>
+  <si>
+    <t>Ne devrait pas se produire</t>
+  </si>
+  <si>
+    <t>Une erreur réseau est à l'origine de l'abandon de la récupération des données</t>
+  </si>
+  <si>
+    <t>Si systématique pour 1 client 
+-&gt; possibilité de faire faire des tests réseau domestique au client
+-&gt; si pas de solution à faire remonter</t>
+  </si>
+  <si>
+    <t>Une erreur de décodage est intervenue liée à une description incohérente du média</t>
+  </si>
+  <si>
+    <t>Message d'erreur technique</t>
+  </si>
+  <si>
+    <t>Problème de conf en tête de réseau</t>
+  </si>
+  <si>
+    <t>Ce type de média n'est pas supporté par la balise vidéo</t>
+  </si>
+  <si>
+    <t>Message plus lien</t>
+  </si>
+  <si>
+    <t>Lien vers une page qui explique comment gérer les codecs. S'inspirer de http://cconcolato.github.io/media-mime-support/ ?</t>
+  </si>
+  <si>
+    <t>Solution : le client met à jour  les codecs, s'inspirer de la page cité à gauche.</t>
+  </si>
+  <si>
+    <t>Problème de configuration</t>
+  </si>
+  <si>
+    <t>Erreur</t>
+  </si>
+  <si>
+    <t>La configuration de votre navigateur ne permet pas de visionner votre chaîne.</t>
+  </si>
+  <si>
+    <t>En savoir plus (lien config autorisées)</t>
+  </si>
+  <si>
+    <t>Cette erreur intervient quand la balise vidéo détecte que le contenu est protégé</t>
+  </si>
+  <si>
+    <t>Pas de solution à faire remonter</t>
+  </si>
+  <si>
+    <t>Cette chaîne est momentanément indisponible.</t>
+  </si>
+  <si>
+    <t>Nous travaillons actuellement à rétablir le service.
+Veuillez nous excuser pour la gêne occasionnée</t>
+  </si>
+  <si>
+    <t>Cette erreur intervient si le navigateur ne supporte pas MSE</t>
+  </si>
+  <si>
+    <t>Lien vers page  assistance Activer extensions</t>
+  </si>
+  <si>
+    <t>Rediriger vers l'assistance (rubrique extension EME)</t>
+  </si>
+  <si>
+    <t>Configuration non compatible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merci d’activer les extensions vidéo pour regarder les chaînes TV sur votre ordinateur. </t>
+  </si>
+  <si>
+    <t>En savoir plus (lien AEL existant)</t>
+  </si>
+  <si>
+    <t>Creation du SourceBuffer MSE impossible</t>
+  </si>
+  <si>
+    <t>Message : Recharger la page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pb logiciel. </t>
+  </si>
+  <si>
+    <t>Possibilité de régler le pbm avec ctrl+F5
+Si systématique pour 1 client -&gt; pas de solution donc à faire remonter</t>
+  </si>
+  <si>
+    <t>Nous vous conseillons d'actualiser la page.
+Si le problème persiste, veuillez contacter le support via le lien ''nous contacter'' en bas de page.</t>
+  </si>
+  <si>
+    <t>Ajout de données dans le SourceBuffer MSE impossible</t>
+  </si>
+  <si>
+    <t>Suppression de données dans le SourceBuffer MSE impossible</t>
+  </si>
+  <si>
+    <t>Cette erreur intervient si le téléchargement du manifest a échoué</t>
+  </si>
+  <si>
+    <t>Probablement une erreur réseau temporaire</t>
+  </si>
+  <si>
+    <t>Une erreur est intervenue lors du parsing de manifest</t>
+  </si>
+  <si>
+    <t>Cette erreur intervient si le téléchargement d'un segment média a échoué</t>
+  </si>
+  <si>
+    <t>Problème de débit Internet</t>
+  </si>
+  <si>
+    <t>Nous vous invitons à effectuer un test de débit via le lien tester ma configuration en bas de page, et à vérifier les usages simultanés sur votre ligne.</t>
+  </si>
+  <si>
+    <t>Remarque</t>
+  </si>
+  <si>
+    <t>MediaKeys EME ne sont pas supportés par ce navigateur</t>
+  </si>
+  <si>
+    <t>l'accès au key system n'est pas possible. Cette erreur intervient par exemple dans Chrome lorsque le CDM Widevine est désactivé.</t>
+  </si>
+  <si>
+    <t>Rediriger vers l'assistance (rubrique activation WideVine)</t>
+  </si>
+  <si>
+    <t>Merci de vérifier la configuration de votre navigateur.</t>
+  </si>
+  <si>
+    <t>En savoir plus (lien AEL activer WV à créer)</t>
+  </si>
+  <si>
+    <t>Impossible de créer une session.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recharger page </t>
+  </si>
+  <si>
+    <t>Nous vous conseillons d'actualiser la page.
+Si le problème persiste, veuillez contacter le support via le lien "nous contacter" en bas de page.</t>
+  </si>
+  <si>
+    <t>L'url du licenceur n'est pas connue.</t>
+  </si>
+  <si>
+    <t>Dans le cas de PlayReady, le challenge n'est pas présent pour demander la licence.</t>
+  </si>
+  <si>
+    <t>Message ???</t>
+  </si>
+  <si>
+    <t>Cas théorique jamais rencontré</t>
+  </si>
+  <si>
+    <t>Merci d'essayer à nouveau. 
+Si le problème persiste, veuillez contacter le support via le lien "nous contacter" en bas de page.</t>
+  </si>
+  <si>
+    <t>une erreur lors de la récupération de la licence est intervenue</t>
+  </si>
+  <si>
+    <t>une erreur non spécifiée est intervenue lors de la récupération de la licence</t>
+  </si>
+  <si>
+    <t>Probablement une erreur réseau temporaire
+ou erreur tête de réseau</t>
+  </si>
+  <si>
+    <t>le key system ne peut être installé ou mis à jour</t>
+  </si>
+  <si>
+    <t>pour Chrome : vérifier l'activation de WV (tests plus poussés à faire). 
+Ne devrait pas se produire pour EDGE , directement erreur technique</t>
+  </si>
+  <si>
+    <t>1er temps : Rediriger vers l'assistance (rubrique activation WideVine)
+2eme temps : à remonter</t>
+  </si>
+  <si>
+    <t>le challenge nécessaire à la récupération de la licence comporte une erreur</t>
+  </si>
+  <si>
+    <t>Si répétitif, souci technique</t>
+  </si>
+  <si>
+    <t>la licence récupérée n'est pas conforme aux sorties vidéo</t>
+  </si>
+  <si>
+    <t>Message idem SL 6030 ?</t>
+  </si>
+  <si>
+    <t>Jamais rencontré, ne devrait pas se produire vu les param de licences</t>
+  </si>
+  <si>
+    <t>A faire remonter, avec informations sur le raccordement de l'écran (type de connexion HDMI VGA, réf du câble).</t>
+  </si>
+  <si>
+    <t>Nous vous invitons à tester sur un autre écran.
+Si le problème persiste, merci de contacter le support</t>
+  </si>
+  <si>
+    <t>"Nous contacter" 
+Lien vers formulaire</t>
+  </si>
+  <si>
+    <t>un changement dans la configuration matérielle empêche la lecture de ce contenu protégé.</t>
+  </si>
+  <si>
+    <t>Observé avec SL si modif importante de conf, ou retour de l'horloge dans le passé</t>
+  </si>
+  <si>
+    <t>Pour info, cas rencontré dans la conf suivante : VM montée sur un MAC.
+Gestion à voir au cas par cas.</t>
+  </si>
+  <si>
+    <t>Problème de configuration matérielle</t>
+  </si>
+  <si>
+    <t>Un changement dans la configuration de votre ordinateur bloque la lecture de votre chaîne.</t>
+  </si>
+  <si>
+    <t>impossible de joindre le domaine pour récupérer la licence.</t>
+  </si>
+  <si>
+    <t>Le code MEDIA_ERR_CODEC_UNSUPPORTED remplace l'ancien code MANIFEST_ERR_CODEC</t>
+  </si>
+  <si>
+    <t>MANIFEST_ERR_NO_AUDIO</t>
+  </si>
+  <si>
+    <t>No audio data in manifest</t>
+  </si>
+  <si>
+    <t>No audio  track is provided in the manifest</t>
+  </si>
+  <si>
+    <t>No audio track is provided in the manifest</t>
+  </si>
+  <si>
+    <t>MANIFEST_ERR_NO_STREAM</t>
+  </si>
+  <si>
+    <t>Erreur un peu similaire à l'erreur MANIFEST_ERR_NO_STREAM.
+Cas d'un maanifest avec un stream n'ayant pas de track video. ne devrait jamais arriver.</t>
+  </si>
+  <si>
+    <t>!! MANIFEST_ERR_NOSTREAM renommé MANIFEST_ERR_NO_STREAM</t>
+  </si>
+  <si>
+    <t>!! Warning, donc rien à faire à part logger</t>
+  </si>
+  <si>
+    <t>Une erreur liée à un codec non supporté est intervenue</t>
+  </si>
+  <si>
+    <t>Solution :  le client met à jour  les codecs, s'inspirer de la page cité à gauche.</t>
+  </si>
+  <si>
+    <t>La configuration de votre navigateur ne permet pas de visionner votre chaîne</t>
+  </si>
+  <si>
+    <t>Devrait correspondre au traitement appliqué auparavant à l'erreur DOWNLOAD_ERR_CONTENT</t>
+  </si>
+  <si>
+    <t>Remplace les erreurs MEDIA_KEYMESSERR_XHR_xxx, pb général lors de la requête vers le licenser. Remonte en plus à préstn l'erreur du licenser dans la réponse si présente</t>
+  </si>
+  <si>
+    <t>{
+  code: &lt;code&gt;,
+  message: &lt;message&gt;,
+  data: {
+    keySystems: [{
+      schemeIdUri: &lt;KS scheme id uri&gt;,
+      systemString: &lt;KS name&gt;
+    }]
+  }
+}</t>
   </si>
 </sst>
 </file>
@@ -587,7 +906,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -603,6 +922,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -682,9 +1007,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -700,9 +1022,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -715,9 +1034,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -733,9 +1049,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,9 +1064,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,9 +1076,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,9 +1088,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -798,6 +1102,51 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1113,844 +1462,2272 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" ht="96" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="7" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:7" ht="84" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G6"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="41" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="2" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="4"/>
-    <col min="9" max="9" width="11.42578125" style="5"/>
-    <col min="10" max="16384" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="11.42578125" style="49"/>
+    <col min="9" max="9" width="11.42578125" style="4"/>
+    <col min="10" max="10" width="70.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="50.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" style="2" customWidth="1"/>
+    <col min="14" max="15" width="25.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="40.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="34.42578125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="H1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="43">
+        <v>5020</v>
+      </c>
+      <c r="I2" s="13">
+        <v>5010</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="38"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="44">
+        <v>5021</v>
+      </c>
+      <c r="I3" s="18">
+        <v>5011</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R3" s="38"/>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="44">
+        <v>5022</v>
+      </c>
+      <c r="I4" s="18">
+        <v>5012</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="44">
+        <v>5023</v>
+      </c>
+      <c r="I5" s="18">
+        <v>5013</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="H6" s="45">
+        <v>5110</v>
+      </c>
+      <c r="I6" s="23">
+        <v>5014</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="39"/>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="43">
+        <v>5040</v>
+      </c>
+      <c r="I7" s="13">
+        <v>5020</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="18">
+        <v>5021</v>
+      </c>
+      <c r="J8" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q8" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="42" t="s">
+      <c r="H9" s="44">
+        <v>5025</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5022</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="44">
+        <v>5026</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5023</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="1:18" s="6" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="45">
+        <v>5024</v>
+      </c>
+      <c r="I11" s="23">
+        <v>5024</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="96" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H12" s="46">
+        <v>5050</v>
+      </c>
+      <c r="I12" s="27">
+        <v>5030</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" s="40"/>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="44">
+        <v>5031</v>
+      </c>
+      <c r="I13" s="18">
+        <v>5031</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="44">
+        <v>5032</v>
+      </c>
+      <c r="I14" s="18">
+        <v>5032</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="18">
+        <v>5033</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="18">
+        <v>5034</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="96" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="15">
-        <v>5020</v>
-      </c>
-      <c r="I2" s="16">
-        <v>5010</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="21">
-        <v>5021</v>
-      </c>
-      <c r="I3" s="22">
-        <v>5011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="21">
-        <v>5022</v>
-      </c>
-      <c r="I4" s="22">
-        <v>5012</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="G17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="47">
+        <v>5051</v>
+      </c>
+      <c r="I17" s="31">
+        <v>5035</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R17" s="40" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="7" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="33">
+        <v>5036</v>
+      </c>
+      <c r="R18" s="41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="43">
+        <v>5120</v>
+      </c>
+      <c r="I19" s="13">
+        <v>5110</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" s="38"/>
+    </row>
+    <row r="20" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="47">
+        <v>5140</v>
+      </c>
+      <c r="I20" s="31">
+        <v>5120</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R20" s="40"/>
+    </row>
+    <row r="21" spans="1:18" ht="144" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="47">
+        <v>5154</v>
+      </c>
+      <c r="I21" s="31">
+        <v>5130</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R21" s="40"/>
+    </row>
+    <row r="22" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="47">
+        <v>5150</v>
+      </c>
+      <c r="I22" s="31">
+        <v>5131</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R22" s="40"/>
+    </row>
+    <row r="23" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="47">
+        <v>5151</v>
+      </c>
+      <c r="I23" s="31">
+        <v>5132</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R23" s="40"/>
+    </row>
+    <row r="24" spans="1:18" ht="144" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="31">
+        <v>5133</v>
+      </c>
+      <c r="R24" s="40" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="84" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="47">
+        <v>5130</v>
+      </c>
+      <c r="I25" s="31">
+        <v>5140</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R25" s="40"/>
+    </row>
+    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="47">
+        <v>5131</v>
+      </c>
+      <c r="I26" s="31">
+        <v>5141</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R26" s="40"/>
+    </row>
+    <row r="27" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="47">
+        <v>5132</v>
+      </c>
+      <c r="I27" s="31">
+        <v>5142</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="R27" s="40"/>
+    </row>
+    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="47">
+        <v>5133</v>
+      </c>
+      <c r="I28" s="31">
+        <v>5143</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R28" s="40"/>
+    </row>
+    <row r="29" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="47">
+        <v>5134</v>
+      </c>
+      <c r="I29" s="31">
+        <v>5144</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="R29" s="40"/>
+    </row>
+    <row r="30" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="47">
+        <v>5135</v>
+      </c>
+      <c r="I30" s="31">
+        <v>5145</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21">
-        <v>5023</v>
-      </c>
-      <c r="I5" s="22">
-        <v>5013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="27">
-        <v>5110</v>
-      </c>
-      <c r="I6" s="28">
-        <v>5014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="15">
-        <v>5040</v>
-      </c>
-      <c r="I7" s="16">
-        <v>5020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22">
-        <v>5021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="21">
-        <v>5025</v>
-      </c>
-      <c r="I9" s="22">
-        <v>5022</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="21">
-        <v>5026</v>
-      </c>
-      <c r="I10" s="22">
-        <v>5023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H11" s="27">
-        <v>5024</v>
-      </c>
-      <c r="I11" s="28">
-        <v>5024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="32">
-        <v>5050</v>
-      </c>
-      <c r="I12" s="33">
-        <v>5030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="21">
-        <v>5031</v>
-      </c>
-      <c r="I13" s="22">
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="21">
-        <v>5032</v>
-      </c>
-      <c r="I14" s="22">
-        <v>5032</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22">
-        <v>5033</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="84" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="36" t="s">
+      <c r="L30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R30" s="40"/>
+    </row>
+    <row r="31" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="36" t="s">
+      <c r="B31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H16" s="37">
-        <v>5051</v>
-      </c>
-      <c r="I16" s="38">
-        <v>5034</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="8" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="40">
-        <v>5035</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="15">
-        <v>5120</v>
-      </c>
-      <c r="I18" s="16">
-        <v>5110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="37">
-        <v>5140</v>
-      </c>
-      <c r="I19" s="38">
-        <v>5120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="144" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37">
-        <v>5154</v>
-      </c>
-      <c r="I20" s="38">
-        <v>5130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37">
-        <v>5150</v>
-      </c>
-      <c r="I21" s="38">
-        <v>5131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37">
-        <v>5151</v>
-      </c>
-      <c r="I22" s="38">
-        <v>5132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="144" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38">
-        <v>5133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="84" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" s="37">
-        <v>5130</v>
-      </c>
-      <c r="I24" s="38">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="37">
-        <v>5131</v>
-      </c>
-      <c r="I25" s="38">
-        <v>5141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" s="37">
-        <v>5132</v>
-      </c>
-      <c r="I26" s="38">
-        <v>5142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" s="37">
-        <v>5133</v>
-      </c>
-      <c r="I27" s="38">
-        <v>5143</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="37">
-        <v>5134</v>
-      </c>
-      <c r="I28" s="38">
-        <v>5144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="48" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="37">
-        <v>5135</v>
-      </c>
-      <c r="I29" s="38">
-        <v>5145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="H30" s="37">
+      <c r="H31" s="47">
         <v>5136</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I31" s="31">
         <v>5146</v>
       </c>
+      <c r="J31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R31" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6"/>

--- a/doc/hasplayer.js_Errors.xlsx
+++ b/doc/hasplayer.js_Errors.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="22995" windowHeight="10245" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="435" windowWidth="22995" windowHeight="10185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="errors" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="217">
   <si>
     <t>MEDIA_ERR_ENCRYPTED</t>
   </si>
@@ -214,16 +214,7 @@
     <t>MSE</t>
   </si>
   <si>
-    <t>STREAM_ERR_BUFFER</t>
-  </si>
-  <si>
     <t>Failed to download media segment</t>
-  </si>
-  <si>
-    <t>Failed to download media segments, buffer is now underflow</t>
-  </si>
-  <si>
-    <t>Failed to download some media segments, and the buffer became underflow</t>
   </si>
   <si>
     <t>Failed to download a media segment file</t>
@@ -461,9 +452,6 @@
     <t># Applies only for MPEG DASH streams</t>
   </si>
   <si>
-    <t># After a media segment download failed, the player waits for buffer to be underflow to raise STREAM_ERR_BUFFER error</t>
-  </si>
-  <si>
     <t># Applies only for Chrome</t>
   </si>
   <si>
@@ -783,9 +771,6 @@
     <t>impossible de joindre le domaine pour récupérer la licence.</t>
   </si>
   <si>
-    <t>Le code MEDIA_ERR_CODEC_UNSUPPORTED remplace l'ancien code MANIFEST_ERR_CODEC</t>
-  </si>
-  <si>
     <t>MANIFEST_ERR_NO_AUDIO</t>
   </si>
   <si>
@@ -818,12 +803,6 @@
   </si>
   <si>
     <t>La configuration de votre navigateur ne permet pas de visionner votre chaîne</t>
-  </si>
-  <si>
-    <t>Devrait correspondre au traitement appliqué auparavant à l'erreur DOWNLOAD_ERR_CONTENT</t>
-  </si>
-  <si>
-    <t>Remplace les erreurs MEDIA_KEYMESSERR_XHR_xxx, pb général lors de la requête vers le licenser. Remonte en plus à préstn l'erreur du licenser dans la réponse si présente</t>
   </si>
   <si>
     <t>{
@@ -836,6 +815,53 @@
     }]
   }
 }</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERROR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF9933"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+WARNING</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+# When a segment download fails, a warning is raised
+# Afterwards, when the buffer becomes underflow, the session si reloaded
+# Then, when a third segment download fails, an error is raised
+# For text tracks only warnings are raised
+</t>
+  </si>
+  <si>
+    <t>* Warning dans certains, donc rien à faire à part logger
+* Erreur quand 3ème segment échoue après tentatives de rechargement de la session (une fois le buffer vide)</t>
+  </si>
+  <si>
+    <t>(5030)</t>
+  </si>
+  <si>
+    <t>Le code MEDIA_ERR_CODEC_UNSUPPORTED remplace l'ancien code MANIFEST_ERR_CODEC (5030)</t>
+  </si>
+  <si>
+    <t>(5153)</t>
+  </si>
+  <si>
+    <t>Remplace les erreurs MEDIA_KEYMESSERR_XHR_xxx, pb général lors de la requête vers le licenser. Remonte en plus à présent l'erreur du licenser dans la réponse si présente</t>
   </si>
 </sst>
 </file>
@@ -1462,11 +1488,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1512,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>22</v>
@@ -1506,7 +1532,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
@@ -1521,13 +1547,13 @@
         <v>31</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>24</v>
@@ -1542,13 +1568,13 @@
         <v>30</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>24</v>
@@ -1563,13 +1589,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>24</v>
@@ -1584,13 +1610,13 @@
         <v>32</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -1599,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6" s="21"/>
     </row>
@@ -1626,7 +1652,7 @@
         <v>56</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -1635,7 +1661,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>42</v>
@@ -1647,10 +1673,10 @@
         <v>45</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -1658,7 +1684,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -1670,10 +1696,10 @@
         <v>46</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
@@ -1693,10 +1719,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1716,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.25">
@@ -1727,7 +1753,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>20</v>
@@ -1739,10 +1765,10 @@
         <v>58</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
@@ -1762,7 +1788,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="16"/>
     </row>
@@ -1774,7 +1800,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>59</v>
@@ -1783,10 +1809,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -1806,7 +1832,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G15" s="16"/>
     </row>
@@ -1818,129 +1844,129 @@
         <v>41</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:7" ht="96" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:7" s="7" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B17" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="7" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="32" t="s">
+      <c r="F17" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="12" t="s">
+      <c r="E18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="144" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="144" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>94</v>
-      </c>
       <c r="F21" s="17" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>24</v>
@@ -1955,13 +1981,13 @@
         <v>84</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="144" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>24</v>
@@ -1976,176 +2002,155 @@
         <v>87</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="84" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>90</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E24" s="30"/>
       <c r="F24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="30"/>
-    </row>
-    <row r="25" spans="1:7" ht="84" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="17" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2160,11 +2165,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,7 +2199,7 @@
         <v>26</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" s="34" t="s">
         <v>22</v>
@@ -2212,42 +2217,42 @@
         <v>27</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I1" s="35" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="J1" s="36" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>116</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>120</v>
       </c>
       <c r="P1" s="36" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="R1" s="37" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>24</v>
@@ -2262,7 +2267,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="43">
@@ -2272,34 +2277,34 @@
         <v>5010</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="R2" s="38"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>24</v>
@@ -2314,7 +2319,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="44">
@@ -2324,34 +2329,34 @@
         <v>5011</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="R3" s="38"/>
     </row>
     <row r="4" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>24</v>
@@ -2366,7 +2371,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="44">
@@ -2376,34 +2381,34 @@
         <v>5012</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>24</v>
@@ -2418,7 +2423,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="44">
@@ -2428,34 +2433,34 @@
         <v>5013</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="R5" s="38"/>
     </row>
     <row r="6" spans="1:18" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -2464,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G6" s="21"/>
       <c r="H6" s="45">
@@ -2480,28 +2485,28 @@
         <v>5014</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="R6" s="39"/>
     </row>
@@ -2522,7 +2527,7 @@
         <v>56</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="43">
@@ -2532,28 +2537,28 @@
         <v>5020</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="R7" s="38"/>
     </row>
@@ -2562,7 +2567,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>42</v>
@@ -2574,41 +2579,43 @@
         <v>45</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H8" s="44"/>
+        <v>97</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>213</v>
+      </c>
       <c r="I8" s="18">
         <v>5021</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K8" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>142</v>
-      </c>
       <c r="P8" s="50" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q8" s="50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="R8" s="38" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -2616,7 +2623,7 @@
         <v>61</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>16</v>
@@ -2628,10 +2635,10 @@
         <v>46</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H9" s="44">
         <v>5025</v>
@@ -2640,28 +2647,28 @@
         <v>5022</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="R9" s="38"/>
     </row>
@@ -2682,10 +2689,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" s="44">
         <v>5026</v>
@@ -2694,28 +2701,28 @@
         <v>5023</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q10" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="R10" s="38"/>
     </row>
@@ -2736,10 +2743,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H11" s="45">
         <v>5024</v>
@@ -2748,31 +2755,31 @@
         <v>5024</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="O11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="R11" s="39" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="96" x14ac:dyDescent="0.25">
@@ -2780,7 +2787,7 @@
         <v>50</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>20</v>
@@ -2792,10 +2799,10 @@
         <v>58</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H12" s="46">
         <v>5050</v>
@@ -2804,28 +2811,28 @@
         <v>5030</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="P12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="R12" s="40"/>
     </row>
@@ -2846,7 +2853,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="44">
@@ -2856,28 +2863,28 @@
         <v>5031</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="M13" s="3" t="s">
+      <c r="P13" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="R13" s="38"/>
     </row>
@@ -2889,7 +2896,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>59</v>
@@ -2898,10 +2905,10 @@
         <v>60</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H14" s="44">
         <v>5032</v>
@@ -2910,31 +2917,31 @@
         <v>5032</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="R14" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -2954,7 +2961,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="44"/>
@@ -2962,7 +2969,7 @@
         <v>5033</v>
       </c>
       <c r="R15" s="38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
@@ -2973,16 +2980,16 @@
         <v>41</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="44"/>
@@ -2990,252 +2997,276 @@
         <v>5034</v>
       </c>
       <c r="R16" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" ht="96" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G17" s="30" t="s">
+      <c r="F17" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="48">
+        <v>5051</v>
+      </c>
+      <c r="I17" s="33">
+        <v>5035</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="43">
+        <v>5120</v>
+      </c>
+      <c r="I18" s="13">
+        <v>5110</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="R18" s="38"/>
+    </row>
+    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="G19" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="47">
-        <v>5051</v>
-      </c>
-      <c r="I17" s="31">
-        <v>5035</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" s="2" t="s">
+      <c r="H19" s="47">
+        <v>5140</v>
+      </c>
+      <c r="I19" s="31">
+        <v>5120</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P17" s="2" t="s">
+      <c r="K19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R17" s="40" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="7" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="32" t="s">
+      <c r="N19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" ht="144" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="33">
-        <v>5036</v>
-      </c>
-      <c r="R18" s="41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="43">
-        <v>5120</v>
-      </c>
-      <c r="I19" s="13">
-        <v>5110</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R19" s="38"/>
-    </row>
-    <row r="20" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>67</v>
-      </c>
       <c r="B20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="E20" s="30"/>
+        <v>90</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>91</v>
+      </c>
       <c r="F20" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>109</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G20" s="30"/>
       <c r="H20" s="47">
-        <v>5140</v>
+        <v>5154</v>
       </c>
       <c r="I20" s="31">
-        <v>5120</v>
+        <v>5130</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>170</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>172</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="R20" s="40"/>
     </row>
-    <row r="21" spans="1:18" ht="144" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="47">
-        <v>5154</v>
+        <v>5150</v>
       </c>
       <c r="I21" s="31">
-        <v>5130</v>
+        <v>5131</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="R21" s="40"/>
     </row>
-    <row r="22" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>24</v>
@@ -3250,44 +3281,44 @@
         <v>84</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="47">
-        <v>5150</v>
+        <v>5151</v>
       </c>
       <c r="I22" s="31">
-        <v>5131</v>
+        <v>5132</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="Q22" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="R22" s="40"/>
     </row>
-    <row r="23" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="144" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>24</v>
@@ -3302,432 +3333,382 @@
         <v>87</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="47">
-        <v>5151</v>
+      <c r="H23" s="47" t="s">
+        <v>215</v>
       </c>
       <c r="I23" s="31">
-        <v>5132</v>
-      </c>
-      <c r="J23" s="2" t="s">
+        <v>5133</v>
+      </c>
+      <c r="R23" s="40" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="84" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="47">
+        <v>5130</v>
+      </c>
+      <c r="I24" s="31">
+        <v>5140</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="M23" s="2" t="s">
+      <c r="K24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="R23" s="40"/>
-    </row>
-    <row r="24" spans="1:18" ht="144" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="31">
-        <v>5133</v>
-      </c>
-      <c r="R24" s="40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="84" x14ac:dyDescent="0.25">
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E25" s="30"/>
       <c r="F25" s="17" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H25" s="47">
-        <v>5130</v>
+        <v>5131</v>
       </c>
       <c r="I25" s="31">
-        <v>5140</v>
+        <v>5141</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="2" t="s">
+      <c r="P25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E26" s="30"/>
       <c r="F26" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H26" s="47">
-        <v>5131</v>
+        <v>5132</v>
       </c>
       <c r="I26" s="31">
-        <v>5141</v>
+        <v>5142</v>
       </c>
       <c r="J26" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="N26" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="R26" s="40"/>
     </row>
     <row r="27" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H27" s="47">
-        <v>5132</v>
+        <v>5133</v>
       </c>
       <c r="I27" s="31">
-        <v>5142</v>
+        <v>5143</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M27" s="2" t="s">
-        <v>187</v>
+        <v>120</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="R27" s="40"/>
     </row>
-    <row r="28" spans="1:18" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="30"/>
       <c r="F28" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H28" s="47">
-        <v>5133</v>
+        <v>5134</v>
       </c>
       <c r="I28" s="31">
-        <v>5143</v>
+        <v>5144</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="M28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O28" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O28" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="P28" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="R28" s="40"/>
     </row>
-    <row r="29" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H29" s="47">
-        <v>5134</v>
+        <v>5135</v>
       </c>
       <c r="I29" s="31">
-        <v>5144</v>
+        <v>5145</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>191</v>
+        <v>33</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="O29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H30" s="47">
-        <v>5135</v>
+        <v>5136</v>
       </c>
       <c r="I30" s="31">
-        <v>5145</v>
+        <v>5146</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="R30" s="40"/>
-    </row>
-    <row r="31" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="47">
-        <v>5136</v>
-      </c>
-      <c r="I31" s="31">
-        <v>5146</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R31" s="40"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6"/>

--- a/doc/hasplayer.js_Errors.xlsx
+++ b/doc/hasplayer.js_Errors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="220">
   <si>
     <t>MEDIA_ERR_ENCRYPTED</t>
   </si>
@@ -481,10 +481,6 @@
 (actual)</t>
   </si>
   <si>
-    <t>WebTV-G8PC Code
-(new)</t>
-  </si>
-  <si>
     <t># 'data.ks' contains array of signalized Key Systems
 # Applies on Chrome if EME is disabled (see chrome://flags)</t>
   </si>
@@ -863,12 +859,31 @@
   <si>
     <t>Remplace les erreurs MEDIA_KEYMESSERR_XHR_xxx, pb général lors de la requête vers le licenser. Remonte en plus à présent l'erreur du licenser dans la réponse si présente</t>
   </si>
+  <si>
+    <t>MEDIA_ERR_CREATE_MEDIASOURCE</t>
+  </si>
+  <si>
+    <t>Failed to create MediaSource</t>
+  </si>
+  <si>
+    <t>An error occurred while creating the MediaSource object, due to system error.</t>
+  </si>
+  <si>
+    <t>{
+  code: &lt;code&gt;,
+  message: &lt;message&gt;,
+  data: {
+    name: &lt;exception name&gt;,
+    message: &lt;exception message&gt;
+  }
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,14 +927,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1022,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1033,9 +1040,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1060,9 +1064,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1075,9 +1076,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1090,10 +1088,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,31 +1097,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1488,11 +1471,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,649 +1490,670 @@
     <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G9" s="14" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="10" spans="1:7" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:7" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+    <row r="12" spans="1:7" s="5" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B12" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G12" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="13" spans="1:7" ht="96" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D13" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G13" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E17" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" s="7" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" s="6" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B18" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="30" t="s">
+      <c r="B20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D20" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="144" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="B21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D21" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E21" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="30" t="s">
+      <c r="B22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D22" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E22" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F22" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="30" t="s">
+      <c r="B23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G22" s="30"/>
-    </row>
-    <row r="23" spans="1:7" ht="144" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="144" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="30" t="s">
+      <c r="B24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D24" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E24" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F24" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="30"/>
-    </row>
-    <row r="24" spans="1:7" ht="84" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="84" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="30" t="s">
+      <c r="B25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D25" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="17" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="30" t="s">
+      <c r="G25" s="25" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="30" t="s">
+      <c r="B26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D26" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="17" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G26" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D27" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="17" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G27" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="30" t="s">
+      <c r="B28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D28" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="17" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G28" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="30" t="s">
+      <c r="B29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D29" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="17" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G29" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="48" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+    <row r="30" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="30" t="s">
+      <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D30" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="17" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G30" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="30" t="s">
+      <c r="B31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D31" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="17" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G31" s="25" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2165,11 +2169,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,100 +2185,96 @@
     <col min="5" max="5" width="30.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="49"/>
-    <col min="9" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="70.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="50.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" style="2" customWidth="1"/>
-    <col min="14" max="15" width="25.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="40.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="34.42578125" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="2"/>
+    <col min="8" max="8" width="11.42578125" style="41"/>
+    <col min="9" max="9" width="70.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="50.5703125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="40.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="34.42578125" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="36" t="s">
+      <c r="I1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="J1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="36" t="s">
+      <c r="O1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="P1" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="43">
+      <c r="G2" s="10"/>
+      <c r="H2" s="35">
         <v>5020</v>
       </c>
-      <c r="I2" s="13">
-        <v>5010</v>
+      <c r="I2" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>125</v>
@@ -2283,7 +2283,7 @@
         <v>126</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>120</v>
@@ -2297,48 +2297,45 @@
       <c r="P2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R2" s="38"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="Q2" s="30"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="44">
+      <c r="G3" s="14"/>
+      <c r="H3" s="36">
         <v>5021</v>
       </c>
-      <c r="I3" s="18">
-        <v>5011</v>
+      <c r="I3" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>126</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>121</v>
@@ -2349,36 +2346,33 @@
       <c r="P3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R3" s="38"/>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="Q3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="44">
+      <c r="G4" s="14"/>
+      <c r="H4" s="36">
         <v>5022</v>
       </c>
-      <c r="I4" s="18">
-        <v>5012</v>
+      <c r="I4" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>130</v>
@@ -2387,7 +2381,7 @@
         <v>131</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>120</v>
@@ -2401,36 +2395,33 @@
       <c r="P4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="Q4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="44">
+      <c r="G5" s="14"/>
+      <c r="H5" s="36">
         <v>5023</v>
       </c>
-      <c r="I5" s="18">
-        <v>5013</v>
+      <c r="I5" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>133</v>
@@ -2453,94 +2444,88 @@
       <c r="P5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" s="5" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="37">
+        <v>5110</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="R5" s="38"/>
-    </row>
-    <row r="6" spans="1:18" s="6" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="J6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="45">
-        <v>5110</v>
-      </c>
-      <c r="I6" s="23">
-        <v>5014</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="6" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="35">
+        <v>5040</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" s="39"/>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="43">
-        <v>5040</v>
-      </c>
-      <c r="I7" s="13">
-        <v>5020</v>
-      </c>
       <c r="J7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>146</v>
@@ -2549,159 +2534,122 @@
         <v>147</v>
       </c>
       <c r="N7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="35"/>
+      <c r="Q8" s="30"/>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="L9" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="N9" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="P9" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="36">
+        <v>5025</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R7" s="38"/>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="18">
-        <v>5021</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="M8" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q8" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="44">
-        <v>5025</v>
-      </c>
-      <c r="I9" s="18">
-        <v>5022</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R9" s="38"/>
-    </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="44">
-        <v>5026</v>
-      </c>
-      <c r="I10" s="18">
-        <v>5023</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>156</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>152</v>
@@ -2710,217 +2658,205 @@
         <v>153</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>121</v>
       </c>
       <c r="O10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="30"/>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="36">
+        <v>5026</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q11" s="30"/>
+    </row>
+    <row r="12" spans="1:17" s="5" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="37">
+        <v>5024</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="96" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="38">
+        <v>5050</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="R10" s="38"/>
-    </row>
-    <row r="11" spans="1:18" s="6" customFormat="1" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="45">
-        <v>5024</v>
-      </c>
-      <c r="I11" s="23">
-        <v>5024</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="R11" s="39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="96" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="P13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="46">
-        <v>5050</v>
-      </c>
-      <c r="I12" s="27">
-        <v>5030</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" s="2" t="s">
+      <c r="B14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="36">
+        <v>5031</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R12" s="40"/>
-    </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="84" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="44">
-        <v>5031</v>
-      </c>
-      <c r="I13" s="18">
-        <v>5031</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13" s="38"/>
-    </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="44">
-        <v>5032</v>
-      </c>
-      <c r="I14" s="18">
-        <v>5032</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>117</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>119</v>
@@ -2937,501 +2873,470 @@
       <c r="P14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="R14" s="38" t="s">
+      <c r="Q14" s="30"/>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="36">
+        <v>5032</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="36"/>
+      <c r="Q16" s="30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="36"/>
+      <c r="Q17" s="30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+    <row r="18" spans="1:17" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="17" t="s">
+      <c r="B18" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="40">
+        <v>5051</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="35">
+        <v>5120</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="30"/>
+    </row>
+    <row r="20" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="39">
+        <v>5140</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" ht="144" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="39">
+        <v>5154</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="39">
+        <v>5150</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="18">
-        <v>5033</v>
-      </c>
-      <c r="R15" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="18">
-        <v>5034</v>
-      </c>
-      <c r="R16" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="H17" s="48">
-        <v>5051</v>
-      </c>
-      <c r="I17" s="33">
-        <v>5035</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" s="7" t="s">
+      <c r="G23" s="25"/>
+      <c r="H23" s="39">
+        <v>5151</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="R17" s="41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="N23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="32"/>
+    </row>
+    <row r="24" spans="1:17" ht="144" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="43">
-        <v>5120</v>
-      </c>
-      <c r="I18" s="13">
-        <v>5110</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R18" s="38"/>
-    </row>
-    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="B24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="84" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="47">
-        <v>5140</v>
-      </c>
-      <c r="I19" s="31">
-        <v>5120</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="R19" s="40"/>
-    </row>
-    <row r="20" spans="1:18" ht="144" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="30"/>
-      <c r="H20" s="47">
-        <v>5154</v>
-      </c>
-      <c r="I20" s="31">
+      <c r="B25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="39">
         <v>5130</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R20" s="40"/>
-    </row>
-    <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="47">
-        <v>5150</v>
-      </c>
-      <c r="I21" s="31">
-        <v>5131</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R21" s="40"/>
-    </row>
-    <row r="22" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="47">
-        <v>5151</v>
-      </c>
-      <c r="I22" s="31">
-        <v>5132</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Q22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R22" s="40"/>
-    </row>
-    <row r="23" spans="1:18" ht="144" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="I23" s="31">
-        <v>5133</v>
-      </c>
-      <c r="R23" s="40" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="84" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="47">
-        <v>5130</v>
-      </c>
-      <c r="I24" s="31">
-        <v>5140</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="47">
-        <v>5131</v>
-      </c>
-      <c r="I25" s="31">
-        <v>5141</v>
-      </c>
       <c r="J25" s="2" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>120</v>
@@ -3440,275 +3345,306 @@
         <v>121</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R25" s="40"/>
-    </row>
-    <row r="26" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q25" s="32"/>
+    </row>
+    <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="30" t="s">
+      <c r="B26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="39">
+        <v>5131</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="32"/>
+    </row>
+    <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D27" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="17" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G27" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H27" s="39">
         <v>5132</v>
       </c>
-      <c r="I26" s="31">
-        <v>5142</v>
-      </c>
-      <c r="J26" s="2" t="s">
+      <c r="I27" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L26" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M27" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q27" s="32"/>
+    </row>
+    <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="39">
+        <v>5133</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="R26" s="40"/>
-    </row>
-    <row r="27" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="47">
-        <v>5133</v>
-      </c>
-      <c r="I27" s="31">
-        <v>5143</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="J28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K27" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M27" s="2" t="s">
+      <c r="L28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="R27" s="40"/>
-    </row>
-    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="47">
-        <v>5134</v>
-      </c>
-      <c r="I28" s="31">
-        <v>5144</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>121</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="P28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="32"/>
+    </row>
+    <row r="29" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="39">
+        <v>5134</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="Q29" s="32"/>
+    </row>
+    <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="39">
+        <v>5135</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="R28" s="40"/>
-    </row>
-    <row r="29" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="J30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="17" t="s">
+      <c r="B31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G31" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="H29" s="47">
-        <v>5135</v>
-      </c>
-      <c r="I29" s="31">
-        <v>5145</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P29" s="2" t="s">
+      <c r="H31" s="39">
+        <v>5136</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="Q29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R29" s="40"/>
-    </row>
-    <row r="30" spans="1:18" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="H30" s="47">
-        <v>5136</v>
-      </c>
-      <c r="I30" s="31">
-        <v>5146</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="L30" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="M30" s="2" t="s">
+      <c r="L31" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N31" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="O31" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="R30" s="40"/>
+      <c r="P31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G6"/>
